--- a/results/CNN_2layers_adaptive_avgpool=3/vc_CNN_2layers_adaptive_avgpool_3_PCC.xlsx
+++ b/results/CNN_2layers_adaptive_avgpool=3/vc_CNN_2layers_adaptive_avgpool_3_PCC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code\StudyCode\functionalconnectivity_sfcc\results\CNN_2layers_adaptive_avgpool=3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251B4879-037E-4775-9C22-BB5DE892B222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E23B453-2358-420D-9178-0EBD63854EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="K-Fold Results" sheetId="1" r:id="rId1"/>
